--- a/参数表(已自动还原).xlsx
+++ b/参数表(已自动还原).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA9E21D-3EF3-48BC-8FC5-3BFC8CF79E8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7CD8E7-7B27-42EB-969C-6BA6AFFCD150}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="120" windowWidth="16152" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2748" yWindow="120" windowWidth="16152" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>地形</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +141,18 @@
   </si>
   <si>
     <t>地形行动力消耗$m_t$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开拓者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -299,7 +310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -340,6 +351,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -683,19 +697,19 @@
   <dimension ref="A2:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.3125" customWidth="1"/>
-    <col min="2" max="2" width="21.26171875" customWidth="1"/>
-    <col min="3" max="3" width="32.3125" customWidth="1"/>
-    <col min="4" max="4" width="20.41796875" customWidth="1"/>
-    <col min="5" max="5" width="34.1015625" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -715,7 +729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -735,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
@@ -755,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -770,7 +784,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -785,7 +799,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -800,7 +814,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -815,7 +829,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -830,7 +844,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -845,7 +859,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -860,7 +874,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -875,7 +889,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -890,8 +904,8 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="1:6" ht="14.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
@@ -904,8 +918,14 @@
       <c r="D18" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
@@ -918,8 +938,14 @@
       <c r="D19" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
@@ -932,8 +958,14 @@
       <c r="D20" s="10">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>22</v>
       </c>
@@ -946,8 +978,14 @@
       <c r="D21" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="14.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>23</v>
       </c>
@@ -960,8 +998,14 @@
       <c r="D22" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E22" s="14">
+        <v>4</v>
+      </c>
+      <c r="F22" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>24</v>
       </c>
@@ -974,8 +1018,14 @@
       <c r="D23" s="13">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>25</v>
       </c>
@@ -988,49 +1038,55 @@
       <c r="D24" s="13">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.4" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="7" t="s">
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="7" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B29" s="3">
         <v>2</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C29" s="3">
         <v>4</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D29" s="3">
         <v>3</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E29" s="3">
         <v>4</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F29" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>16</v>
       </c>
@@ -1038,7 +1094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>10</v>
       </c>
@@ -1046,7 +1102,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>11</v>
       </c>
@@ -1054,7 +1110,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -1062,7 +1118,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>17</v>
       </c>
@@ -1070,7 +1126,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>18</v>
       </c>
@@ -1078,7 +1134,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>21</v>
       </c>
@@ -1099,7 +1155,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1113,7 +1169,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
